--- a/test/src/org/tms/io/sample2.xlsx
+++ b/test/src/org/tms/io/sample2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="1320" windowWidth="20400" windowHeight="7200" tabRatio="500"/>
+    <workbookView xWindow="10560" yWindow="5900" windowWidth="14660" windowHeight="7440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample 2" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="Booleans">'Sample 2'!$D:$D</definedName>
     <definedName name="Cyan">'Sample 2'!$C$5</definedName>
-    <definedName name="Subset">'Sample 2'!$B$2:$B$5</definedName>
+    <definedName name="Subset">'Sample 2'!$B$3:$D$5</definedName>
     <definedName name="YellowRow">'Sample 2'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -585,7 +585,7 @@
       <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="b">
@@ -597,6 +597,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="C3" s="1"/>
       <c r="E3">
         <f>Table2[[#This Row],[Abc]]*3</f>
         <v>0</v>
@@ -606,7 +607,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="b">
@@ -624,7 +625,7 @@
       <c r="B5" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="b">

--- a/test/src/org/tms/io/sample2.xlsx
+++ b/test/src/org/tms/io/sample2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="5900" windowWidth="14660" windowHeight="7440" tabRatio="500"/>
+    <workbookView xWindow="14980" yWindow="3740" windowWidth="13940" windowHeight="7440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample 2" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,16 +170,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -187,43 +201,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Table"/>
-    <tableColumn id="2" name="Abc" dataDxfId="1"/>
-    <tableColumn id="3" name="Col 2"/>
-    <tableColumn id="4" name="Def Ghi"/>
-    <tableColumn id="5" name="Col 4" dataDxfId="0">
-      <calculatedColumnFormula>Table2[[#This Row],[Abc]]*3</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,77 +633,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>Table2[[#This Row],[Abc]]*3</f>
+      <c r="E2" s="9">
+        <f>'Sample 2'!$B2*3</f>
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <f>Table2[[#This Row],[Abc]]*3</f>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9">
+        <f>'Sample 2'!$B3*3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E4">
-        <f>Table2[[#This Row],[Abc]]*3</f>
+      <c r="E4" s="9">
+        <f>'Sample 2'!$B4*3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <v>17.649999999999999</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E5">
-        <f>Table2[[#This Row],[Abc]]*3</f>
+      <c r="E5" s="13">
+        <f>'Sample 2'!$B5*3</f>
         <v>52.949999999999996</v>
       </c>
     </row>
@@ -640,9 +715,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
